--- a/document/map.xlsx
+++ b/document/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansanghoon/div-creator/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2574AE9F-7100-5640-964D-4A9DCBED1C7D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF01C63-1B61-A949-94D7-E079CF2B899C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18160" windowHeight="19500" xr2:uid="{CBB96875-0429-434B-91E6-C627C6A578E2}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -746,7 +746,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -878,7 +878,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
